--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail10 Features.xlsx
@@ -3851,7 +3851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,29 +3862,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3905,115 +3903,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4030,72 +4018,66 @@
         <v>4.130757998357507e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.731834162750861</v>
+        <v>1.889399831410834e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.9692557800669945</v>
+        <v>4.196630594952325e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.889399831410834e-07</v>
+        <v>-0.07538324421118518</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.196630594952325e-06</v>
+        <v>0.1910811628806979</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.07538324421118518</v>
+        <v>0.04219487209646032</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1910811628806979</v>
+        <v>1.702204473528282</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04219487209646032</v>
+        <v>1.557960530720849</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.641501245090265</v>
+        <v>4.578587969940375</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.557960530720849</v>
+        <v>4.621085110491589e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.578587969940375</v>
+        <v>54241337.75192964</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.621085110491589e-15</v>
+        <v>2.056038097358312e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>54241337.75192964</v>
+        <v>13.59579949980158</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.056038097358312e-06</v>
+        <v>0.0001736600790457116</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>13.59579949980158</v>
+        <v>10.97594361704917</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001736600790457116</v>
+        <v>1.18024865220439</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.97594361704917</v>
+        <v>0.02092106212925365</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.18024865220439</v>
+        <v>2.522112152561008</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02092106212925365</v>
+        <v>0.948497374500802</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.522112152561008</v>
+        <v>1.763626115004637</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.948497374500802</v>
+        <v>37</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.763626115004637</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2057854950407895</v>
       </c>
     </row>
@@ -4110,72 +4092,66 @@
         <v>4.267801779131519e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.8527101316821538</v>
+        <v>1.927061179936221e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.9037548814684215</v>
+        <v>4.193476771986817e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.927061179936221e-07</v>
+        <v>-0.07482090873767956</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.193476771986817e-06</v>
+        <v>0.184531634678273</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07482090873767956</v>
+        <v>0.03964962280503868</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.184531634678273</v>
+        <v>1.71963836559955</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03964962280503868</v>
+        <v>1.545386736172025</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.662199202936367</v>
+        <v>4.14214694656545</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.545386736172025</v>
+        <v>4.164204998406447e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.14214694656545</v>
+        <v>59702736.01994749</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.164204998406447e-15</v>
+        <v>1.878836812159485e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>59702736.01994749</v>
+        <v>14.84296178968703</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.878836812159485e-06</v>
+        <v>0.0001967571491966563</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>14.84296178968703</v>
+        <v>10.26366289155597</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001967571491966563</v>
+        <v>1.244868181808488</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.26366289155597</v>
+        <v>0.02072694428467981</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.244868181808488</v>
+        <v>2.556546452152597</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02072694428467981</v>
+        <v>0.9514004780198787</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.556546452152597</v>
+        <v>1.803758881146372</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9514004780198787</v>
+        <v>37</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.803758881146372</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2013016453221515</v>
       </c>
     </row>
@@ -4190,72 +4166,66 @@
         <v>4.402233321945793e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.9596265428682014</v>
+        <v>1.998236312240894e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.8010514332707013</v>
+        <v>4.190233573437224e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.998236312240894e-07</v>
+        <v>-0.07503951377099992</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.190233573437224e-06</v>
+        <v>0.1790805415965406</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.07503951377099992</v>
+        <v>0.03769943852286507</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1790805415965406</v>
+        <v>1.816875848195569</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03769943852286507</v>
+        <v>1.572147990932232</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.774512984904464</v>
+        <v>4.643803401607604</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.572147990932232</v>
+        <v>3.205571641961959e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.643803401607604</v>
+        <v>75484811.45070954</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.205571641961959e-15</v>
+        <v>1.551562261507168e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>75484811.45070954</v>
+        <v>18.26520860617739</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.551562261507168e-06</v>
+        <v>0.000184977015487744</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>18.26520860617739</v>
+        <v>8.252875017794189</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000184977015487744</v>
+        <v>1.606281245977964</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.252875017794189</v>
+        <v>0.01259877454708636</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.606281245977964</v>
+        <v>2.812900998659305</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01259877454708636</v>
+        <v>0.956617156264697</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.812900998659305</v>
+        <v>1.64257398417456</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.956617156264697</v>
+        <v>41</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.64257398417456</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2473814021843584</v>
       </c>
     </row>
@@ -4270,72 +4240,66 @@
         <v>4.538680788467293e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.065973895156698</v>
+        <v>2.069985041207229e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.6855566433471201</v>
+        <v>4.186854483025761e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.069985041207229e-07</v>
+        <v>-0.07600498038858629</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.186854483025761e-06</v>
+        <v>0.1734551783926267</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.07600498038858629</v>
+        <v>0.03586304550458467</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1734551783926267</v>
+        <v>1.835196431816117</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03586304550458467</v>
+        <v>1.669962867877623</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.802893774828822</v>
+        <v>5.6855370934572</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.669962867877623</v>
+        <v>9.937395244330683e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.6855370934572</v>
+        <v>235680648.1699416</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.937395244330683e-16</v>
+        <v>4.993027586719741e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>235680648.1699416</v>
+        <v>55.19762750307311</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.993027586719741e-07</v>
+        <v>0.0001541778996127176</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>55.19762750307311</v>
+        <v>8.995854258140431</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001541778996127176</v>
+        <v>1.308311981325994</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.995854258140431</v>
+        <v>0.01247690724661235</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.308311981325994</v>
+        <v>2.861686751830128</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01247690724661235</v>
+        <v>0.9557570803548183</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.861686751830128</v>
+        <v>1.630989559356923</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9557570803548183</v>
+        <v>43</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.630989559356923</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3127926271256151</v>
       </c>
     </row>
@@ -4350,72 +4314,66 @@
         <v>4.672286700241151e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.161427702213617</v>
+        <v>2.069839397326583e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.5399128078775064</v>
+        <v>4.183385244412928e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.069839397326583e-07</v>
+        <v>-0.07383957703969492</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.183385244412928e-06</v>
+        <v>0.1683473712696629</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.07383957703969492</v>
+        <v>0.03379125562381039</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1683473712696629</v>
+        <v>1.880525655690642</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03379125562381039</v>
+        <v>2.147962484173071</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.864786548278865</v>
+        <v>4.057088227142504</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.147962484173071</v>
+        <v>6.556997975492842e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.057088227142504</v>
+        <v>354036267.1257208</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.556997975492842e-16</v>
+        <v>3.360257152848129e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>354036267.1257208</v>
+        <v>82.18651317780186</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.360257152848129e-07</v>
+        <v>0.0001528334844724447</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>82.18651317780186</v>
+        <v>9.440199193434699</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001528334844724447</v>
+        <v>1.286165895478575</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.440199193434699</v>
+        <v>0.01362011677984405</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.286165895478575</v>
+        <v>2.832912641951841</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01362011677984405</v>
+        <v>0.9556099431109276</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.832912641951841</v>
+        <v>1.508189815485127</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9556099431109276</v>
+        <v>43</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.508189815485127</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2944334407459193</v>
       </c>
     </row>
@@ -4430,72 +4388,66 @@
         <v>4.809832694775173e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.201197219500802</v>
+        <v>1.947244476214311e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.3469019870573962</v>
+        <v>4.180032272553288e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.947244476214311e-07</v>
+        <v>-0.06702853312791149</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.180032272553288e-06</v>
+        <v>0.1620694158345028</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.06702853312791149</v>
+        <v>0.03075316704753609</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1620694158345028</v>
+        <v>1.872378099224032</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03075316704753609</v>
+        <v>2.139120279728679</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.864620809541684</v>
+        <v>4.139487202697498</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.139120279728679</v>
+        <v>7.802735624282086e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.139487202697498</v>
+        <v>288799789.2010283</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.802735624282086e-16</v>
+        <v>4.102519443038343e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>288799789.2010283</v>
+        <v>65.07896479057948</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.102519443038343e-07</v>
+        <v>0.0001511137147389729</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>65.07896479057948</v>
+        <v>9.020052588713757</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001511137147389729</v>
+        <v>1.280314396101794</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.020052588713757</v>
+        <v>0.01229481563870769</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.280314396101794</v>
+        <v>2.8916090980024</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01229481563870769</v>
+        <v>0.9528198177817029</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.8916090980024</v>
+        <v>1.491467262312344</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9528198177817029</v>
+        <v>24</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.491467262312344</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2664418028100262</v>
       </c>
     </row>
@@ -4510,72 +4462,66 @@
         <v>4.945834670276286e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.173034833747385</v>
+        <v>1.791928624801394e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.1051447231949312</v>
+        <v>4.176979092766529e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.791928624801394e-07</v>
+        <v>-0.05815750759606658</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.176979092766529e-06</v>
+        <v>0.1557594649325879</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05815750759606658</v>
+        <v>0.02763640583066419</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1557594649325879</v>
+        <v>1.862292062267531</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02763640583066419</v>
+        <v>1.962588978241615</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.848627825123224</v>
+        <v>4.140420815014657</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.962588978241615</v>
+        <v>7.799217185406073e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.140420815014657</v>
+        <v>276843050.1672229</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.799217185406073e-16</v>
+        <v>4.231438708722856e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>276843050.1672229</v>
+        <v>59.77481839875839</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.231438708722856e-07</v>
+        <v>0.0001579700581709466</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>59.77481839875839</v>
+        <v>9.243686515876842</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001579700581709466</v>
+        <v>1.274886313324012</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.243686515876842</v>
+        <v>0.01349786858204842</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.274886313324012</v>
+        <v>2.826573163507159</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01349786858204842</v>
+        <v>0.9528737634055489</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.826573163507159</v>
+        <v>1.537593935373273</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9528737634055489</v>
+        <v>24</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.537593935373273</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2529705368392922</v>
       </c>
     </row>
@@ -4590,72 +4536,66 @@
         <v>5.072811381859735e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.102282730866787</v>
+        <v>1.782561881482066e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.1537923625150368</v>
+        <v>4.174278355619688e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.782561881482066e-07</v>
+        <v>-0.04995464599246819</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.174278355619688e-06</v>
+        <v>0.1504972924072756</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04995464599246819</v>
+        <v>0.02514031908449784</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1504972924072756</v>
+        <v>1.851334307746841</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02514031908449784</v>
+        <v>2.020684178052007</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.829966780637067</v>
+        <v>4.109533752476304</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.020684178052007</v>
+        <v>7.916894859286735e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.109533752476304</v>
+        <v>268611208.8182672</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>7.916894859286735e-16</v>
+        <v>4.353764702370741e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>268611208.8182672</v>
+        <v>57.12196514469538</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.353764702370741e-07</v>
+        <v>0.0001699443158369914</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>57.12196514469538</v>
+        <v>9.643518895494562</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001699443158369914</v>
+        <v>1.264673099764593</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.643518895494562</v>
+        <v>0.01580438915138173</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.264673099764593</v>
+        <v>2.729003002637538</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01580438915138173</v>
+        <v>0.9541568910392871</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.729003002637538</v>
+        <v>1.568528981627801</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9541568910392871</v>
+        <v>33</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.568528981627801</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2437932686728814</v>
       </c>
     </row>
@@ -5032,7 +4972,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.24757308925</v>
+        <v>1.230753472020067</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.344148832904147</v>
@@ -5121,7 +5061,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.239234740793226</v>
+        <v>1.220200618927296</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.267590337022073</v>
@@ -5210,7 +5150,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.241433380754076</v>
+        <v>1.222982415638176</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.209268566525362</v>
@@ -5299,7 +5239,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.234080084532511</v>
+        <v>1.212280859859292</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.283850082853109</v>
@@ -5388,7 +5328,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.231565685437522</v>
+        <v>1.212312490808605</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.270749835534594</v>
@@ -5477,7 +5417,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.235788526065775</v>
+        <v>1.217281895647041</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.17590440283927</v>
@@ -5566,7 +5506,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.237561428042463</v>
+        <v>1.222261646204547</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.133376867015728</v>
@@ -5655,7 +5595,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.241284731952432</v>
+        <v>1.229294759658004</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.197736626551064</v>
@@ -5744,7 +5684,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.234295279253719</v>
+        <v>1.213738807336805</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.259490371543999</v>
@@ -5833,7 +5773,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.225528805225995</v>
+        <v>1.209569444697927</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.119898827574473</v>
@@ -5922,7 +5862,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.228164579540773</v>
+        <v>1.209649444308235</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.223850858912914</v>
@@ -6011,7 +5951,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.230114595310395</v>
+        <v>1.213169553489183</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.095609295691134</v>
@@ -6100,7 +6040,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.233375295189246</v>
+        <v>1.219661886724839</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.255379650245432</v>
@@ -6189,7 +6129,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.240917922421573</v>
+        <v>1.227922798270493</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.332635692514899</v>
@@ -6278,7 +6218,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.235854504495669</v>
+        <v>1.222381011882602</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.302552247515008</v>
@@ -6367,7 +6307,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.238361304800863</v>
+        <v>1.223306269890153</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.146689795789938</v>
@@ -6456,7 +6396,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.245913052184774</v>
+        <v>1.227481879365414</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.215711387052448</v>
@@ -6545,7 +6485,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.238527809105864</v>
+        <v>1.223635543840578</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.339830230058919</v>
@@ -6634,7 +6574,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.240019391872888</v>
+        <v>1.222836182739042</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.257036233895416</v>
@@ -6723,7 +6663,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.25664536823792</v>
+        <v>1.241341357735406</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.274425063623891</v>
@@ -6812,7 +6752,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.268932089906383</v>
+        <v>1.254044505794388</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.2418516026899</v>
@@ -6901,7 +6841,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.262458865737593</v>
+        <v>1.24824967122986</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.272411188966864</v>
@@ -6990,7 +6930,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.264841003059522</v>
+        <v>1.250052544768516</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.531434029270161</v>
@@ -7079,7 +7019,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.266093257768588</v>
+        <v>1.252267777003267</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.406382266296359</v>
@@ -7168,7 +7108,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.263937528867802</v>
+        <v>1.251403488982339</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.43117440716571</v>
@@ -7257,7 +7197,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.266137291920507</v>
+        <v>1.255995433992572</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.436704551040959</v>
@@ -7346,7 +7286,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.275920003655322</v>
+        <v>1.260301019125744</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.319034571517778</v>
@@ -7435,7 +7375,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.260985269499632</v>
+        <v>1.247313862097798</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.256500500903354</v>
@@ -7524,7 +7464,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.255630586273331</v>
+        <v>1.24253656167458</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.469509317624189</v>
@@ -7613,7 +7553,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.249151326240535</v>
+        <v>1.233756880513762</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.367240943701562</v>
@@ -7702,7 +7642,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.250804370665511</v>
+        <v>1.234650219738107</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.185217730444232</v>
@@ -7791,7 +7731,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.246269705150883</v>
+        <v>1.229942120887043</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.228549283648323</v>
@@ -7880,7 +7820,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.232671241818696</v>
+        <v>1.213526055615903</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.346636464589237</v>
@@ -7969,7 +7909,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.235510718528219</v>
+        <v>1.216518341392814</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.220537220276749</v>
@@ -8058,7 +7998,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.224326046976584</v>
+        <v>1.203853996906234</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.444568609969116</v>
@@ -8147,7 +8087,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.216090223578631</v>
+        <v>1.198020622662299</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.372317320149259</v>
@@ -8236,7 +8176,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.227722830355703</v>
+        <v>1.211486254092213</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.193486476552649</v>
@@ -8325,7 +8265,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.230987392685409</v>
+        <v>1.21490567295486</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.210238341004472</v>
@@ -8414,7 +8354,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.232405776205263</v>
+        <v>1.217998110643661</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.187411626527798</v>
@@ -8503,7 +8443,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.241483284123376</v>
+        <v>1.228406448709117</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.128444171936392</v>
@@ -8592,7 +8532,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.254353508830494</v>
+        <v>1.240905234258506</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.240849820278407</v>
@@ -8681,7 +8621,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.261661482126016</v>
+        <v>1.248033294660513</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.422897803275222</v>
@@ -8770,7 +8710,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.250898432204841</v>
+        <v>1.237082087944132</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.124313621444895</v>
@@ -8859,7 +8799,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.258757374572442</v>
+        <v>1.243412621488696</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.144571027577248</v>
@@ -8948,7 +8888,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.257497753374243</v>
+        <v>1.245758084431056</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.175474762616458</v>
@@ -9037,7 +8977,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.270000979512382</v>
+        <v>1.258681149147406</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.017654809360596</v>
@@ -9126,7 +9066,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.28091004023516</v>
+        <v>1.272126577204173</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.028271957080179</v>
@@ -9215,7 +9155,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.309929722144608</v>
+        <v>1.296498712029865</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.989801946280645</v>
@@ -9304,7 +9244,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.323658717071952</v>
+        <v>1.312929750034966</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.207469278148946</v>
@@ -9393,7 +9333,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.336829926905153</v>
+        <v>1.327076148139591</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.190235351831375</v>
@@ -9482,7 +9422,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.33209693496021</v>
+        <v>1.32073007080505</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.320874687845222</v>
@@ -9571,7 +9511,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.328685086926022</v>
+        <v>1.314945973984514</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.231159788935551</v>
@@ -9660,7 +9600,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.32368660194287</v>
+        <v>1.306772981988898</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.058831661150076</v>
@@ -9946,7 +9886,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.672883003434332</v>
+        <v>1.701311030837919</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.95653405508941</v>
@@ -10035,7 +9975,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.671579668827772</v>
+        <v>1.700058987041775</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.970302247201003</v>
@@ -10124,7 +10064,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.660145996047978</v>
+        <v>1.681075093816981</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.856748645757389</v>
@@ -10213,7 +10153,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.655863712944199</v>
+        <v>1.674013602044404</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.750367249118376</v>
@@ -10302,7 +10242,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.663551111908399</v>
+        <v>1.688455508089843</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.616921011028609</v>
@@ -10391,7 +10331,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.662591740626633</v>
+        <v>1.685505909773563</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.764946345124483</v>
@@ -10480,7 +10420,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.653198819188244</v>
+        <v>1.676320651487927</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.730167836348323</v>
@@ -10569,7 +10509,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.640809065206077</v>
+        <v>1.662811182790552</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.656016476941899</v>
@@ -10658,7 +10598,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.635898866922041</v>
+        <v>1.654929775412404</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.803079055490178</v>
@@ -10747,7 +10687,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.63821415479483</v>
+        <v>1.656743964734068</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.591181886242774</v>
@@ -10836,7 +10776,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.630327066479137</v>
+        <v>1.64631100440565</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.698672128767151</v>
@@ -10925,7 +10865,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.649572702379778</v>
+        <v>1.658012299573366</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.382806510222425</v>
@@ -11014,7 +10954,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.660249945484986</v>
+        <v>1.664710368443644</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.965379353811024</v>
@@ -11103,7 +11043,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.657289675317469</v>
+        <v>1.662471857740745</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.21951632416993</v>
@@ -11192,7 +11132,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.646561529869447</v>
+        <v>1.64955988020826</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.247390293829944</v>
@@ -11281,7 +11221,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.639594983444291</v>
+        <v>1.643906049378635</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.955604786080043</v>
@@ -11370,7 +11310,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.644336649342177</v>
+        <v>1.643225369162141</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.891369590892173</v>
@@ -11459,7 +11399,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.644018377872184</v>
+        <v>1.644626369695168</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.872193162282033</v>
@@ -11548,7 +11488,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.641134932094564</v>
+        <v>1.64153584387393</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.075096651069048</v>
@@ -11637,7 +11577,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.655326035396098</v>
+        <v>1.654307889150144</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.928615201062369</v>
@@ -11726,7 +11666,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.669341414477741</v>
+        <v>1.673100492806344</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.062997305456782</v>
@@ -11815,7 +11755,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.668336473773993</v>
+        <v>1.673330714865463</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.807129090281934</v>
@@ -11904,7 +11844,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.682868966093879</v>
+        <v>1.689769646851212</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.722977463771685</v>
@@ -11993,7 +11933,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.675257567649588</v>
+        <v>1.688138282013839</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.221312689622194</v>
@@ -12082,7 +12022,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.676063266075109</v>
+        <v>1.68827208641765</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.218418495105327</v>
@@ -12171,7 +12111,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.681730792480606</v>
+        <v>1.696500570554615</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.479344055826438</v>
@@ -12260,7 +12200,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.695575277046447</v>
+        <v>1.706428634168878</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.532433008614681</v>
@@ -12349,7 +12289,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.69452726170658</v>
+        <v>1.705167877676923</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.347654113617838</v>
@@ -12438,7 +12378,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.698361978482496</v>
+        <v>1.70614657542894</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.839631173910579</v>
@@ -12527,7 +12467,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.680084689643197</v>
+        <v>1.692444398341909</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.627289808970863</v>
@@ -12616,7 +12556,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.676037860911247</v>
+        <v>1.68193533544256</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.452293511164898</v>
@@ -12705,7 +12645,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.654816235766714</v>
+        <v>1.664833704178129</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.522165930381122</v>
@@ -12794,7 +12734,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.641328092819993</v>
+        <v>1.651964770045846</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.585663694219893</v>
@@ -12883,7 +12823,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.630576575460289</v>
+        <v>1.639526772183312</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.435518294529146</v>
@@ -12972,7 +12912,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.609494016093917</v>
+        <v>1.617583971409634</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.422873567798225</v>
@@ -13061,7 +13001,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.586921324581948</v>
+        <v>1.587828763467595</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.092454677462895</v>
@@ -13150,7 +13090,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.58277988945244</v>
+        <v>1.58163450601576</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.872317328606414</v>
@@ -13239,7 +13179,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.56140415164373</v>
+        <v>1.55559618362753</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.109875043170431</v>
@@ -13328,7 +13268,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.56525911772199</v>
+        <v>1.56014639129558</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.149381738750088</v>
@@ -13417,7 +13357,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.572336018324893</v>
+        <v>1.565653537490011</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.000512332331682</v>
@@ -13506,7 +13446,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.583253482325807</v>
+        <v>1.573188049356955</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.018347353850226</v>
@@ -13595,7 +13535,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.583662845000906</v>
+        <v>1.574941765111774</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.130015826689466</v>
@@ -13684,7 +13624,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.56798311717149</v>
+        <v>1.560000069928275</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.969824905294771</v>
@@ -13773,7 +13713,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.564853185496488</v>
+        <v>1.559965413182614</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.136137679527351</v>
@@ -13862,7 +13802,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.578018169803427</v>
+        <v>1.570864146432901</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.099880528603741</v>
@@ -13951,7 +13891,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.582573831402269</v>
+        <v>1.576882367814201</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.730821788074282</v>
@@ -14040,7 +13980,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.594501010416364</v>
+        <v>1.584762462262348</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.030130720184497</v>
@@ -14129,7 +14069,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.610559952420434</v>
+        <v>1.597507750743845</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.976972902083259</v>
@@ -14218,7 +14158,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.614363538551512</v>
+        <v>1.603593835142141</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.955571892094453</v>
@@ -14307,7 +14247,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.618410069483646</v>
+        <v>1.611457230576446</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.860721737690747</v>
@@ -14396,7 +14336,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.610104491515309</v>
+        <v>1.605779811849999</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.853589461430776</v>
@@ -14485,7 +14425,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.623107253972589</v>
+        <v>1.623375618078295</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.612964590350144</v>
@@ -14574,7 +14514,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.624483442647409</v>
+        <v>1.624670786644608</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.946091589966674</v>
@@ -14860,7 +14800,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.629514651425805</v>
+        <v>1.6257432039569</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.410323783197209</v>
@@ -14949,7 +14889,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.635917657966893</v>
+        <v>1.630272959115236</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.323205020195388</v>
@@ -15038,7 +14978,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.613279433127486</v>
+        <v>1.605114043160048</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.339946160007318</v>
@@ -15127,7 +15067,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.597129321114183</v>
+        <v>1.586895609454519</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.357992806887852</v>
@@ -15216,7 +15156,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.59804862756642</v>
+        <v>1.592163890938253</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.375578621122242</v>
@@ -15305,7 +15245,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.5944996260577</v>
+        <v>1.589718239720687</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.383331942390777</v>
@@ -15394,7 +15334,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.594246785448572</v>
+        <v>1.586900535643477</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.358615194666033</v>
@@ -15483,7 +15423,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.605368719153046</v>
+        <v>1.600010371538857</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.333994951749209</v>
@@ -15572,7 +15512,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.591304426950826</v>
+        <v>1.581198344093049</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.346771547894759</v>
@@ -15661,7 +15601,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.585472281796211</v>
+        <v>1.575651085054995</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.382194505978246</v>
@@ -15750,7 +15690,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.583224820883192</v>
+        <v>1.573603967045662</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.409275496983073</v>
@@ -15839,7 +15779,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.60668003771292</v>
+        <v>1.589732386785092</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.336909855005859</v>
@@ -15928,7 +15868,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.609440344681819</v>
+        <v>1.590058750569702</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.690530566480307</v>
@@ -16017,7 +15957,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.611599342898445</v>
+        <v>1.588934575671639</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.493965084422837</v>
@@ -16106,7 +16046,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.596828146205974</v>
+        <v>1.574170684857628</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.777791014564566</v>
@@ -16195,7 +16135,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.595517188426957</v>
+        <v>1.570299661469592</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.335051676282811</v>
@@ -16284,7 +16224,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.575946687646081</v>
+        <v>1.55180837356484</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.246883410805517</v>
@@ -16373,7 +16313,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.581971548100354</v>
+        <v>1.554034040082263</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.44723453104646</v>
@@ -16462,7 +16402,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.583500141498896</v>
+        <v>1.552348572365378</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.338614054953704</v>
@@ -16551,7 +16491,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.581359188846859</v>
+        <v>1.547389756877763</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.720927670731512</v>
@@ -16640,7 +16580,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.572414263493483</v>
+        <v>1.538837084974623</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.228393448537409</v>
@@ -16729,7 +16669,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575275240448091</v>
+        <v>1.542842690014366</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.338363926555024</v>
@@ -16818,7 +16758,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.565474720882267</v>
+        <v>1.53175284472176</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.372476043009515</v>
@@ -16907,7 +16847,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.572517679342174</v>
+        <v>1.539499756796624</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.120705313201992</v>
@@ -16996,7 +16936,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.569386306049465</v>
+        <v>1.529148794840341</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.40671844180442</v>
@@ -17085,7 +17025,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.563148303623253</v>
+        <v>1.525116045738345</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.068339911500243</v>
@@ -17174,7 +17114,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.559627171008719</v>
+        <v>1.517897252747198</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.90739386258776</v>
@@ -17263,7 +17203,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.561209388943435</v>
+        <v>1.519352046222395</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.493373877433457</v>
@@ -17352,7 +17292,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.552424622014978</v>
+        <v>1.51286258079171</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.407342097159086</v>
@@ -17441,7 +17381,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.559248408497744</v>
+        <v>1.518357954897901</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.245731690770179</v>
@@ -17530,7 +17470,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.554734047146386</v>
+        <v>1.510006898099328</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.550803011266294</v>
@@ -17619,7 +17559,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.556904591471316</v>
+        <v>1.514576377139479</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.109023036832133</v>
@@ -17708,7 +17648,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.535967956548769</v>
+        <v>1.497061035839763</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.47862780825723</v>
@@ -17797,7 +17737,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.532845875455065</v>
+        <v>1.494949893878952</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.534701084569448</v>
@@ -17886,7 +17826,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.541693664370961</v>
+        <v>1.502949702410918</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.928693565419359</v>
@@ -17975,7 +17915,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.539879074550883</v>
+        <v>1.497289336021982</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.350058853202201</v>
@@ -18064,7 +18004,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.528414176435634</v>
+        <v>1.488511018544469</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.309682020409846</v>
@@ -18153,7 +18093,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.519530111972263</v>
+        <v>1.476676651944153</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.095813368908215</v>
@@ -18242,7 +18182,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.514884043782372</v>
+        <v>1.473705875089107</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.87786164448813</v>
@@ -18331,7 +18271,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.516947821474189</v>
+        <v>1.479170420591425</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.863774526928197</v>
@@ -18420,7 +18360,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.527230211366164</v>
+        <v>1.486708171638608</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.245072486569267</v>
@@ -18509,7 +18449,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.544578753725769</v>
+        <v>1.504513535179866</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.063778954094371</v>
@@ -18598,7 +18538,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.54592796860591</v>
+        <v>1.500341521927228</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.94836965015805</v>
@@ -18687,7 +18627,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.530991489091493</v>
+        <v>1.484918515126347</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.208032643477996</v>
@@ -18776,7 +18716,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.531079571961348</v>
+        <v>1.485145995572855</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.225503839182215</v>
@@ -18865,7 +18805,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.543240640973595</v>
+        <v>1.501060514825696</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.085719260958775</v>
@@ -18954,7 +18894,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.544928476337913</v>
+        <v>1.498422837341054</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.244123386052268</v>
@@ -19043,7 +18983,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.566387055215634</v>
+        <v>1.514504285120321</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.120178110698195</v>
@@ -19132,7 +19072,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.572089286961859</v>
+        <v>1.522039836201701</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.150322723712972</v>
@@ -19221,7 +19161,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.564881106775447</v>
+        <v>1.513448273865215</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.227478979602201</v>
@@ -19310,7 +19250,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.574312828521354</v>
+        <v>1.52225742689059</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.066276246792363</v>
@@ -19399,7 +19339,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.582689620828229</v>
+        <v>1.525514187325644</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.505510638966982</v>
@@ -19488,7 +19428,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.58701504514187</v>
+        <v>1.531743661525023</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.50514447898522</v>
@@ -19774,7 +19714,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.633706769559772</v>
+        <v>1.63539795731454</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.880676170656735</v>
@@ -19863,7 +19803,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.64439214928803</v>
+        <v>1.645681509308252</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.799199255409947</v>
@@ -19952,7 +19892,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.631780043781027</v>
+        <v>1.634082425707583</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.942983366670247</v>
@@ -20041,7 +19981,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.627757123230178</v>
+        <v>1.625712558345883</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.756333578452115</v>
@@ -20130,7 +20070,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.631150658486083</v>
+        <v>1.622422019608133</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.816127759383257</v>
@@ -20219,7 +20159,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.630414268666816</v>
+        <v>1.627339423289161</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.661736162549481</v>
@@ -20308,7 +20248,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.631999284140773</v>
+        <v>1.626386295914724</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.770973402236731</v>
@@ -20397,7 +20337,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.638999564380592</v>
+        <v>1.627585578925187</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.730775913364381</v>
@@ -20486,7 +20426,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.632699745031243</v>
+        <v>1.621253908310817</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.612494554750766</v>
@@ -20575,7 +20515,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.634897835553675</v>
+        <v>1.62253679000275</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.599035115604581</v>
@@ -20664,7 +20604,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.640842847178775</v>
+        <v>1.631024331368926</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.7957204611022</v>
@@ -20753,7 +20693,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.642660877969712</v>
+        <v>1.626102290700904</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.129181212368498</v>
@@ -20842,7 +20782,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.640697101125275</v>
+        <v>1.61841015788345</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.578644635089561</v>
@@ -20931,7 +20871,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.645279586648043</v>
+        <v>1.622640527845981</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.248237322889739</v>
@@ -21020,7 +20960,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.638070746218344</v>
+        <v>1.616373025814928</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.820021019345408</v>
@@ -21109,7 +21049,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.646195772400088</v>
+        <v>1.623496842670656</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.363172641947601</v>
@@ -21198,7 +21138,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.644033213905505</v>
+        <v>1.617241405831231</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.781392706760739</v>
@@ -21287,7 +21227,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.645912551997572</v>
+        <v>1.615559956673244</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.288881020924527</v>
@@ -21376,7 +21316,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.648572551825651</v>
+        <v>1.616965239471682</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.986207144800959</v>
@@ -21465,7 +21405,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.651983495059398</v>
+        <v>1.61889789663496</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.34885918831823</v>
@@ -21554,7 +21494,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.640369580017182</v>
+        <v>1.603370164851559</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.004645154557249</v>
@@ -21643,7 +21583,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.640402262534918</v>
+        <v>1.597981482084147</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.644524829087509</v>
@@ -21732,7 +21672,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.644664942092391</v>
+        <v>1.605291667003389</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.250124954294138</v>
@@ -21821,7 +21761,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.65404492515994</v>
+        <v>1.612279742756913</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.581441044861975</v>
@@ -21910,7 +21850,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.630009524214082</v>
+        <v>1.591108069916679</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.363926294824915</v>
@@ -21999,7 +21939,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.629750447336899</v>
+        <v>1.590456295279327</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.048769238171158</v>
@@ -22088,7 +22028,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.634308197555969</v>
+        <v>1.588405929875415</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.140340716790057</v>
@@ -22177,7 +22117,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.630862303905207</v>
+        <v>1.584512789989216</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.388401254817662</v>
@@ -22266,7 +22206,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.631004684276822</v>
+        <v>1.579680051451239</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.269721498663388</v>
@@ -22355,7 +22295,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.621313007149017</v>
+        <v>1.572037139862343</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.307342080956873</v>
@@ -22444,7 +22384,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.610945721942018</v>
+        <v>1.564549319681073</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.275511249317186</v>
@@ -22533,7 +22473,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.609710814783209</v>
+        <v>1.564556855386585</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.083901240640859</v>
@@ -22622,7 +22562,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.60289059011225</v>
+        <v>1.561278101016511</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.219720096006502</v>
@@ -22711,7 +22651,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.601919170349104</v>
+        <v>1.55654660132451</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.24927200693558</v>
@@ -22800,7 +22740,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.603585809808677</v>
+        <v>1.56235652033746</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.058034434274912</v>
@@ -22889,7 +22829,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.607021529686744</v>
+        <v>1.571332202869659</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.163971083389785</v>
@@ -22978,7 +22918,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.611981866432921</v>
+        <v>1.582327184503752</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.221332457017177</v>
@@ -23067,7 +23007,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.605425825347117</v>
+        <v>1.570425440733006</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.414277118154037</v>
@@ -23156,7 +23096,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.602875729703972</v>
+        <v>1.571480641745631</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.836916534273022</v>
@@ -23245,7 +23185,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.607250140140546</v>
+        <v>1.576055378542025</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.242547770059594</v>
@@ -23334,7 +23274,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.60372496482177</v>
+        <v>1.575422323867275</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.292645521933576</v>
@@ -23423,7 +23363,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.605432480592756</v>
+        <v>1.578676477329058</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.605223898724855</v>
@@ -23512,7 +23452,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.602904909247066</v>
+        <v>1.585075652787612</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.364873111985494</v>
@@ -23601,7 +23541,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.590623428086364</v>
+        <v>1.57023874725548</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.238459730066048</v>
@@ -23690,7 +23630,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.595845975261756</v>
+        <v>1.576180718695741</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.178750565999125</v>
@@ -23779,7 +23719,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.605686879962767</v>
+        <v>1.584137984188788</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.63341250000444</v>
@@ -23868,7 +23808,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.602864438219227</v>
+        <v>1.581801916758592</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.125434202153193</v>
@@ -23957,7 +23897,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.608392218552072</v>
+        <v>1.582298731919828</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.219781620812955</v>
@@ -24046,7 +23986,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.617958805102684</v>
+        <v>1.592468752094692</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.173262266374395</v>
@@ -24135,7 +24075,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.617833155808181</v>
+        <v>1.593852809850912</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.813585431412156</v>
@@ -24224,7 +24164,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.616732954044644</v>
+        <v>1.586913659750673</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.409151990499891</v>
@@ -24313,7 +24253,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.614567851823406</v>
+        <v>1.581860723998014</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.361069600603042</v>
@@ -24402,7 +24342,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.610173867823062</v>
+        <v>1.583406272498057</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.571363007426354</v>
@@ -24688,7 +24628,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.754516629287599</v>
+        <v>1.789383654675247</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.740075018296398</v>
@@ -24777,7 +24717,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.744713881084965</v>
+        <v>1.779059982834689</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.723055077181452</v>
@@ -24866,7 +24806,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.724209858429632</v>
+        <v>1.750288227830907</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.632735910049679</v>
@@ -24955,7 +24895,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.714346759876376</v>
+        <v>1.737158680577079</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.579621931219122</v>
@@ -25044,7 +24984,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.717023858824608</v>
+        <v>1.738708085444508</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.562744926175171</v>
@@ -25133,7 +25073,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.71878823510436</v>
+        <v>1.742441633043195</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.41842686735494</v>
@@ -25222,7 +25162,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.706684964636734</v>
+        <v>1.729435701147253</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.572752966082604</v>
@@ -25311,7 +25251,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.679212318630804</v>
+        <v>1.704213424879795</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.447348869951107</v>
@@ -25400,7 +25340,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.660098723879498</v>
+        <v>1.681267081136185</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.453687229914572</v>
@@ -25489,7 +25429,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.660448791717937</v>
+        <v>1.683666716714858</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.243326956388632</v>
@@ -25578,7 +25518,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.662806798731071</v>
+        <v>1.684439213429028</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.491653262939713</v>
@@ -25667,7 +25607,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.711014590861075</v>
+        <v>1.72526185393137</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.298874872595225</v>
@@ -25756,7 +25696,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.731772158605401</v>
+        <v>1.736733467995306</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.144992268738573</v>
@@ -25845,7 +25785,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.740642267616038</v>
+        <v>1.747087392118404</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.926839990997441</v>
@@ -25934,7 +25874,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.727825083846513</v>
+        <v>1.734073870349049</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.281366707061945</v>
@@ -26023,7 +25963,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.718746272834348</v>
+        <v>1.72234068856346</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.946282562900433</v>
@@ -26112,7 +26052,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.718933807440716</v>
+        <v>1.718213238730942</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.146364150506622</v>
@@ -26201,7 +26141,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.713853346905685</v>
+        <v>1.714713671161716</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.997443699932442</v>
@@ -26290,7 +26230,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.713938020866776</v>
+        <v>1.716773890652042</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.974576458480195</v>
@@ -26379,7 +26319,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.700083358038652</v>
+        <v>1.703000841250556</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.923690284615941</v>
@@ -26468,7 +26408,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.712698648649427</v>
+        <v>1.71707200264572</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.129515717558809</v>
@@ -26557,7 +26497,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.725687380139282</v>
+        <v>1.726352570254281</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.253760868631481</v>
@@ -26646,7 +26586,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.756746045449003</v>
+        <v>1.749929667020781</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.822044719511947</v>
@@ -26735,7 +26675,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.764095423041267</v>
+        <v>1.759643834179442</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.366256181425521</v>
@@ -26824,7 +26764,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.76421069589297</v>
+        <v>1.756460894747216</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.615984777554005</v>
@@ -26913,7 +26853,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.772649640991031</v>
+        <v>1.765782706941443</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.740677686153357</v>
@@ -27002,7 +26942,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.796695545538632</v>
+        <v>1.780752788294739</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.592421198369111</v>
@@ -27091,7 +27031,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.806941434411883</v>
+        <v>1.792387649864604</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.823705578531405</v>
@@ -27180,7 +27120,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.805555142152157</v>
+        <v>1.787104485888486</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.9780385724561</v>
@@ -27269,7 +27209,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.815058721897985</v>
+        <v>1.794599567259715</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.996511776993545</v>
@@ -27358,7 +27298,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.821936406817497</v>
+        <v>1.805387531245016</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.013832249394117</v>
@@ -27447,7 +27387,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.809352716024846</v>
+        <v>1.799091768641603</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.315057291925264</v>
@@ -27536,7 +27476,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.80210180890252</v>
+        <v>1.789473652291453</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.780826274038048</v>
@@ -27625,7 +27565,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.797264347027307</v>
+        <v>1.781494047056047</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.824204498383288</v>
@@ -27714,7 +27654,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.796123719992769</v>
+        <v>1.782436018632532</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.471988711639836</v>
@@ -27803,7 +27743,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.773871227855506</v>
+        <v>1.758505523202392</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.012987510502924</v>
@@ -27892,7 +27832,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.751505700525354</v>
+        <v>1.734916734054463</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.698919848113767</v>
@@ -27981,7 +27921,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.727488257186463</v>
+        <v>1.7128921955724</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.405316756439181</v>
@@ -28070,7 +28010,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.728104304090246</v>
+        <v>1.718857023006466</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.572251852793135</v>
@@ -28159,7 +28099,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.721075596530156</v>
+        <v>1.71294107127992</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.352488157456516</v>
@@ -28248,7 +28188,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.71704804712713</v>
+        <v>1.708130530695245</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.474333065172374</v>
@@ -28337,7 +28277,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.694099155366105</v>
+        <v>1.68718541360175</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.411764623610587</v>
@@ -28426,7 +28366,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.694439059416841</v>
+        <v>1.688777591157186</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.658575891757972</v>
@@ -28515,7 +28455,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.687180434835693</v>
+        <v>1.684335555998253</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.257890697720121</v>
@@ -28604,7 +28544,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.682685717236312</v>
+        <v>1.67803879288151</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.294406468150735</v>
@@ -28693,7 +28633,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.683442014148688</v>
+        <v>1.67616286324761</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.267784226749736</v>
@@ -28782,7 +28722,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.683041964959215</v>
+        <v>1.667903957970966</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.626427637737654</v>
@@ -28871,7 +28811,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.680575226102743</v>
+        <v>1.670926741246464</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.32014266972477</v>
@@ -28960,7 +28900,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.688594344826421</v>
+        <v>1.678951236624259</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.485061481217584</v>
@@ -29049,7 +28989,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.693916025747294</v>
+        <v>1.681717492129573</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.243910076997349</v>
@@ -29138,7 +29078,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.695767831641325</v>
+        <v>1.682404287073158</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.158714905940824</v>
@@ -29227,7 +29167,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.710547133528854</v>
+        <v>1.698241672217346</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.139531405990525</v>
@@ -29316,7 +29256,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.719814743625208</v>
+        <v>1.706087689598514</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.568676176033434</v>
@@ -29602,7 +29542,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.216426322778572</v>
+        <v>1.205581570787476</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.278670559323818</v>
@@ -29691,7 +29631,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.207484107801267</v>
+        <v>1.19368480584621</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.215688689669959</v>
@@ -29780,7 +29720,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.210214655221298</v>
+        <v>1.1969284637599</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.231544155153554</v>
@@ -29869,7 +29809,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.202656281291459</v>
+        <v>1.184783837824226</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.215495152362114</v>
@@ -29958,7 +29898,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.202350868933482</v>
+        <v>1.186872259163693</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.358259177835155</v>
@@ -30047,7 +29987,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.206439074712271</v>
+        <v>1.19197152037192</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.167137190221978</v>
@@ -30136,7 +30076,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.208500112357566</v>
+        <v>1.195251204544062</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.058013553678014</v>
@@ -30225,7 +30165,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.210475377427382</v>
+        <v>1.199443753258656</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.180920217023361</v>
@@ -30314,7 +30254,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.20488372602293</v>
+        <v>1.185967510642754</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.197794123133541</v>
@@ -30403,7 +30343,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.196114701483194</v>
+        <v>1.181531542909715</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.069606194910069</v>
@@ -30492,7 +30432,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.198212680593508</v>
+        <v>1.180716557793556</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.175178869647758</v>
@@ -30581,7 +30521,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.203939978663099</v>
+        <v>1.186490267640188</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.108391220232885</v>
@@ -30670,7 +30610,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.210831328539824</v>
+        <v>1.19817466407878</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.274827888117471</v>
@@ -30759,7 +30699,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.216673767101765</v>
+        <v>1.203654439010768</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.250267571903567</v>
@@ -30848,7 +30788,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.210656155381862</v>
+        <v>1.196496231912188</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.177521855017273</v>
@@ -30937,7 +30877,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.22008964131312</v>
+        <v>1.206127862861032</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.148804939809443</v>
@@ -31026,7 +30966,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.229178318744919</v>
+        <v>1.211771757077302</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.250101003340571</v>
@@ -31115,7 +31055,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.221308964303488</v>
+        <v>1.206719901900128</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.40817257955985</v>
@@ -31204,7 +31144,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.22678887320893</v>
+        <v>1.208859840377985</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.264021953775467</v>
@@ -31293,7 +31233,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.242366036580875</v>
+        <v>1.225892916759913</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.198692414576116</v>
@@ -31382,7 +31322,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.250893015453498</v>
+        <v>1.234900722492445</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.183925180551458</v>
@@ -31471,7 +31411,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.250177388021187</v>
+        <v>1.233493573110626</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.256172868554446</v>
@@ -31560,7 +31500,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.25719264760768</v>
+        <v>1.241147635108086</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.355060768077581</v>
@@ -31649,7 +31589,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.260303305365335</v>
+        <v>1.243746352598247</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.482636847455483</v>
@@ -31738,7 +31678,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.258250648429601</v>
+        <v>1.24104223393185</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.332469243190898</v>
@@ -31827,7 +31767,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.254915951386996</v>
+        <v>1.242056792864775</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.30159129712732</v>
@@ -31916,7 +31856,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.264503626243853</v>
+        <v>1.246645821934407</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.224654612772373</v>
@@ -32005,7 +31945,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.251839843714811</v>
+        <v>1.235440418937044</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.126523853787079</v>
@@ -32094,7 +32034,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.249503624143722</v>
+        <v>1.23538581708076</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.349748786824363</v>
@@ -32183,7 +32123,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.246659495363388</v>
+        <v>1.229884590344144</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.39704911421972</v>
@@ -32272,7 +32212,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.247243626028486</v>
+        <v>1.229908298580819</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.218245068660584</v>
@@ -32361,7 +32301,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.244351269264984</v>
+        <v>1.226201592386952</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.28656878815787</v>
@@ -32450,7 +32390,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.235105753606131</v>
+        <v>1.216385521301366</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.387709651013337</v>
@@ -32539,7 +32479,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.234822481560484</v>
+        <v>1.216900392882038</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.262350821024141</v>
@@ -32628,7 +32568,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.21806952989838</v>
+        <v>1.198457142145809</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.437973730935879</v>
@@ -32717,7 +32657,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.209084857644578</v>
+        <v>1.191987902613491</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.389882358138918</v>
@@ -32806,7 +32746,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.221179563010474</v>
+        <v>1.205021847172956</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.258215448741272</v>
@@ -32895,7 +32835,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.220627159222403</v>
+        <v>1.204106673777064</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.233589077130099</v>
@@ -32984,7 +32924,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.224975516722199</v>
+        <v>1.209877368362625</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.182817855361319</v>
@@ -33073,7 +33013,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.234248262192735</v>
+        <v>1.218762114182185</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.149566994178185</v>
@@ -33162,7 +33102,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.250647656108309</v>
+        <v>1.23415694034437</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.24489398553689</v>
@@ -33251,7 +33191,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.254904485096708</v>
+        <v>1.238074144400774</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.420837426714052</v>
@@ -33340,7 +33280,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.241567732462652</v>
+        <v>1.225486206251357</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.147537820923583</v>
@@ -33429,7 +33369,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.246652003063878</v>
+        <v>1.228119495617385</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.1500181636679</v>
@@ -33518,7 +33458,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.243765899590867</v>
+        <v>1.23081099347926</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.217423663388606</v>
@@ -33607,7 +33547,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.25335068805305</v>
+        <v>1.239896599274454</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.008740964783844</v>
@@ -33696,7 +33636,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.259983670580383</v>
+        <v>1.246412516717665</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.010641204011119</v>
@@ -33785,7 +33725,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.286015250971269</v>
+        <v>1.2673858882323</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.985644977465238</v>
@@ -33874,7 +33814,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.297277241968276</v>
+        <v>1.28021239420993</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.179837628100517</v>
@@ -33963,7 +33903,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.31173318603639</v>
+        <v>1.294200222336717</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.213087939173732</v>
@@ -34052,7 +33992,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.302585486672069</v>
+        <v>1.284046346870386</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.275694815459107</v>
@@ -34141,7 +34081,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.302010916152461</v>
+        <v>1.284376454577787</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.145162134900356</v>
@@ -34230,7 +34170,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.301670302252261</v>
+        <v>1.281635382671221</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.070297132844873</v>
